--- a/Documents/Chart.xlsx
+++ b/Documents/Chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\pepeco01\Thesis\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFFE496-729B-4DE5-8A90-E21684B9180B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBC7C20-1F48-4A3B-991A-325A03CEC480}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10764" yWindow="0" windowWidth="12276" windowHeight="12360" xr2:uid="{E2835259-3FBA-4642-B3BB-41B4C66C0C70}"/>
+    <workbookView xWindow="2688" yWindow="2268" windowWidth="17472" windowHeight="9876" xr2:uid="{E2835259-3FBA-4642-B3BB-41B4C66C0C70}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>Optimization/Trait</t>
   </si>
@@ -155,7 +155,10 @@
     <t>Do before strictness analyser</t>
   </si>
   <si>
-    <t>Follow final full-laziness pass</t>
+    <t>Follow final full-laziness pass. Does the opposite of the simplifier!</t>
+  </si>
+  <si>
+    <t>Mentions the first full_laziness pass</t>
   </si>
 </sst>
 </file>
@@ -510,7 +513,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,6 +585,15 @@
       <c r="F2">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
       <c r="J2" t="s">
         <v>35</v>
       </c>
@@ -605,6 +617,15 @@
       <c r="F3">
         <v>0</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -625,6 +646,15 @@
       <c r="F4">
         <v>0</v>
       </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
       <c r="J4" t="s">
         <v>35</v>
       </c>
@@ -648,6 +678,15 @@
       <c r="F5">
         <v>0</v>
       </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
       <c r="J5" t="s">
         <v>36</v>
       </c>
@@ -671,6 +710,15 @@
       <c r="F6">
         <v>0</v>
       </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
       <c r="J6" t="s">
         <v>37</v>
       </c>
@@ -694,6 +742,15 @@
       <c r="F7">
         <v>0</v>
       </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
       <c r="J7" t="s">
         <v>38</v>
       </c>
@@ -717,6 +774,18 @@
       <c r="F8">
         <v>0</v>
       </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -737,6 +806,15 @@
       <c r="F9">
         <v>0</v>
       </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -757,6 +835,15 @@
       <c r="F10">
         <v>0</v>
       </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -777,6 +864,15 @@
       <c r="F11">
         <v>0</v>
       </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -797,6 +893,15 @@
       <c r="F12">
         <v>0</v>
       </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
       <c r="J12" t="s">
         <v>39</v>
       </c>
@@ -820,6 +925,15 @@
       <c r="F13">
         <v>0</v>
       </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -840,6 +954,15 @@
       <c r="F14">
         <v>0</v>
       </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -860,6 +983,15 @@
       <c r="F15">
         <v>0</v>
       </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -880,8 +1012,17 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -900,8 +1041,17 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -920,8 +1070,17 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -940,8 +1099,17 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -960,8 +1128,17 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -980,8 +1157,17 @@
       <c r="F21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1000,8 +1186,17 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1020,8 +1215,17 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1040,8 +1244,17 @@
       <c r="F24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1058,6 +1271,15 @@
         <v>1</v>
       </c>
       <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>0</v>
       </c>
     </row>
